--- a/SmartHome/Protocol smart.xlsx
+++ b/SmartHome/Protocol smart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>WEEK 49</t>
+  </si>
+  <si>
+    <t>Lab 6 repeat (User interection sequence and activity diagram), Lab 7 - state machine diagram.</t>
+  </si>
+  <si>
+    <t>Lab 7 repeat- Class diagram</t>
+  </si>
+  <si>
+    <t>Lab 6 repeat - (To be realized scenarios)</t>
+  </si>
+  <si>
+    <t>Ovverall Review</t>
   </si>
 </sst>
 </file>
@@ -117,12 +129,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,22 +149,56 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -166,11 +212,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,104 +301,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,13 +317,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,25 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,43 +461,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,61 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,30 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -541,15 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +556,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -584,6 +591,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -595,167 +617,167 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,13 +1097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1352,148 +1374,430 @@
       <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:8">
-      <c r="D24" s="1" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="B25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="4:8">
-      <c r="D26" s="1" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="4:8">
-      <c r="D27" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="3">
+      <c r="B27" s="3">
         <v>5</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="4:8">
-      <c r="D28" s="2" t="s">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="1">
+      <c r="B28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="4:8">
-      <c r="D29" s="2" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="1">
+      <c r="B29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="4:8">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:8">
-      <c r="D31" s="1">
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="4:8">
-      <c r="D32" s="1">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="4:8">
-      <c r="D33">
+    <row r="61" spans="1:5">
+      <c r="A61">
         <v>3</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="4:8">
-      <c r="D34">
+    <row r="62" spans="1:5">
+      <c r="A62">
         <v>4</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="E62" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="4:8">
-      <c r="D35">
+    <row r="63" spans="1:5">
+      <c r="A63">
         <v>5</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>3</v>
       </c>
     </row>
